--- a/src/main/java/com/qa/hs/scenario/keyworddriven.xlsx
+++ b/src/main/java/com/qa/hs/scenario/keyworddriven.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="8385" windowHeight="3435" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="login1" sheetId="2" r:id="rId2"/>
+    <sheet name="login2" sheetId="3" r:id="rId3"/>
+    <sheet name="signup" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="43">
   <si>
     <t>test step</t>
   </si>
@@ -88,6 +90,63 @@
   </si>
   <si>
     <t>Hubspot123</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>verify home page header</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>get homepage header text</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>//h1[text()='Sales DashBoard']</t>
+  </si>
+  <si>
+    <t>isDisplayed</t>
+  </si>
+  <si>
+    <t>private-page__title</t>
+  </si>
+  <si>
+    <t>getText</t>
+  </si>
+  <si>
+    <t>Sales Dashboard</t>
+  </si>
+  <si>
+    <t>verify signuplink</t>
+  </si>
+  <si>
+    <t>Sign up</t>
   </si>
 </sst>
 </file>
@@ -441,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,24 +679,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3" display="nagendra3047@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3" display="nagendra3047@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>